--- a/OpenWorld/Resources/Enemies.xlsx
+++ b/OpenWorld/Resources/Enemies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,62 @@
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hpMax</t>
+  </si>
+  <si>
+    <t>damageMax</t>
+  </si>
+  <si>
+    <t>defence</t>
+  </si>
+  <si>
+    <t>staminaMax</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Wild boar</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>Cave troll</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,19 +88,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +394,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OpenWorld/Resources/Enemies.xlsx
+++ b/OpenWorld/Resources/Enemies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -40,13 +40,40 @@
     <t>Wild boar</t>
   </si>
   <si>
-    <t>Golem</t>
-  </si>
-  <si>
     <t>Werewolf</t>
   </si>
   <si>
     <t>Cave troll</t>
+  </si>
+  <si>
+    <t>Agressivity</t>
+  </si>
+  <si>
+    <t>Giant</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Mermaid</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>Stone golem</t>
   </si>
 </sst>
 </file>
@@ -395,21 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +451,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -442,8 +471,11 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -459,8 +491,11 @@
       <c r="E3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -476,10 +511,13 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -493,10 +531,13 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -510,10 +551,13 @@
       <c r="E6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -526,6 +570,169 @@
       </c>
       <c r="E7">
         <v>7</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/OpenWorld/Resources/Enemies.xlsx
+++ b/OpenWorld/Resources/Enemies.xlsx
@@ -46,9 +46,6 @@
     <t>Cave troll</t>
   </si>
   <si>
-    <t>Agressivity</t>
-  </si>
-  <si>
     <t>Giant</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Stone golem</t>
+  </si>
+  <si>
+    <t>agressivity</t>
   </si>
 </sst>
 </file>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I3" sqref="G1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +452,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -475,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -495,7 +497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -515,9 +517,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -535,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -555,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -575,9 +577,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -595,9 +597,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -615,9 +617,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -635,9 +637,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -655,9 +657,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -675,9 +677,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -695,9 +697,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -715,9 +717,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>3</v>

--- a/OpenWorld/Resources/Enemies.xlsx
+++ b/OpenWorld/Resources/Enemies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>agressivity</t>
+  </si>
+  <si>
+    <t>Troll</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="G1:I3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,6 +740,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenWorld/Resources/Enemies.xlsx
+++ b/OpenWorld/Resources/Enemies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Troll</t>
+  </si>
+  <si>
+    <t>Bandit</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +763,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenWorld/Resources/Enemies.xlsx
+++ b/OpenWorld/Resources/Enemies.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D6F7B-FBD6-4102-A1A2-60F845E31DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -80,12 +81,84 @@
   </si>
   <si>
     <t>Bandit</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Ent</t>
+  </si>
+  <si>
+    <t>Kobold</t>
+  </si>
+  <si>
+    <t>Hag</t>
+  </si>
+  <si>
+    <t>Wyvern</t>
+  </si>
+  <si>
+    <t>Griffon</t>
+  </si>
+  <si>
+    <t>Manticore</t>
+  </si>
+  <si>
+    <t>Centaur</t>
+  </si>
+  <si>
+    <t>Carnivorous Plant</t>
+  </si>
+  <si>
+    <t>Mad Knight</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Gargoyle</t>
+  </si>
+  <si>
+    <t>Cannibal</t>
+  </si>
+  <si>
+    <t>Basilisk</t>
+  </si>
+  <si>
+    <t>Acromantula</t>
+  </si>
+  <si>
+    <t>Specter</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>Toxic Spore</t>
+  </si>
+  <si>
+    <t>Fungoid</t>
+  </si>
+  <si>
+    <t>Shadow Demon</t>
+  </si>
+  <si>
+    <t>Infernal Fiend</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Sea Serpent</t>
+  </si>
+  <si>
+    <t>The Krakken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -142,7 +215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,6 +290,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -252,6 +342,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,21 +534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +570,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -483,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -503,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -523,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -543,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -563,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -583,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -603,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -623,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -643,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -663,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -683,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -703,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -723,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -743,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -763,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -783,7 +890,128 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OpenWorld/Resources/Enemies.xlsx
+++ b/OpenWorld/Resources/Enemies.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D6F7B-FBD6-4102-A1A2-60F845E31DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017219D4-B768-4492-8E16-01E161669167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -537,18 +537,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -690,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -750,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -830,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -870,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -890,124 +890,484 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
